--- a/milky_way.xlsx
+++ b/milky_way.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="525">
   <si>
     <t>id</t>
   </si>
@@ -1874,10 +1874,10 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -1885,13 +1885,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -1899,13 +1899,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF284E3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -1915,7 +1915,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2027,14 +2027,8 @@
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -2136,7 +2130,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H365" displayName="Table1" name="Table1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H364" displayName="Table1" name="Table1" id="1">
   <tableColumns count="8">
     <tableColumn name="id" id="1"/>
     <tableColumn name="name" id="2"/>
@@ -2498,7 +2492,7 @@
         <v>184.0</v>
       </c>
       <c r="H5" s="13">
-        <v>329.872</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="6">
@@ -10523,7 +10517,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="37">
+      <c r="A311" s="9">
         <v>310.0</v>
       </c>
       <c r="B311" s="29" t="s">
@@ -10535,7 +10529,7 @@
       <c r="D311" s="31">
         <v>31.0</v>
       </c>
-      <c r="E311" s="38">
+      <c r="E311" s="37">
         <f>  4.175787 * POWER(10,31)</f>
         <v>4.17579E+31</v>
       </c>
@@ -10550,7 +10544,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="39">
+      <c r="A312" s="4">
         <v>311.0</v>
       </c>
       <c r="B312" s="33" t="s">
@@ -10562,7 +10556,7 @@
       <c r="D312" s="35">
         <v>31.0</v>
       </c>
-      <c r="E312" s="40">
+      <c r="E312" s="38">
         <f>  3.977 * POWER(10,30)</f>
         <v>3.977E+30</v>
       </c>
@@ -10577,7 +10571,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="37">
+      <c r="A313" s="9">
         <v>312.0</v>
       </c>
       <c r="B313" s="29" t="s">
@@ -10589,7 +10583,7 @@
       <c r="D313" s="31">
         <v>55.0</v>
       </c>
-      <c r="E313" s="38">
+      <c r="E313" s="37">
         <f>  1.31239 * POWER(10,30)</f>
         <v>1.31239E+30</v>
       </c>
@@ -10604,7 +10598,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="39">
+      <c r="A314" s="4">
         <v>313.0</v>
       </c>
       <c r="B314" s="33" t="s">
@@ -10616,7 +10610,7 @@
       <c r="D314" s="35">
         <v>31.0</v>
       </c>
-      <c r="E314" s="40">
+      <c r="E314" s="38">
         <f>  1.789623 * POWER(10,31)</f>
         <v>1.78962E+31</v>
       </c>
@@ -10631,7 +10625,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="37">
+      <c r="A315" s="9">
         <v>314.0</v>
       </c>
       <c r="B315" s="29" t="s">
@@ -10643,7 +10637,7 @@
       <c r="D315" s="31">
         <v>73.0</v>
       </c>
-      <c r="E315" s="38">
+      <c r="E315" s="37">
         <f>  1.252736 * POWER(10,31)</f>
         <v>1.25274E+31</v>
       </c>
@@ -10658,7 +10652,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="39">
+      <c r="A316" s="4">
         <v>315.0</v>
       </c>
       <c r="B316" s="33" t="s">
@@ -10670,7 +10664,7 @@
       <c r="D316" s="35">
         <v>19.0</v>
       </c>
-      <c r="E316" s="40">
+      <c r="E316" s="38">
         <f>  1.789623 * POWER(10,31)</f>
         <v>1.78962E+31</v>
       </c>
@@ -10685,7 +10679,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="37">
+      <c r="A317" s="9">
         <v>316.0</v>
       </c>
       <c r="B317" s="29" t="s">
@@ -10697,7 +10691,7 @@
       <c r="D317" s="31">
         <v>19.0</v>
       </c>
-      <c r="E317" s="38">
+      <c r="E317" s="37">
         <f t="shared" ref="E317:E318" si="4">  1.988 * POWER(10,33)</f>
         <v>1.988E+33</v>
       </c>
@@ -10713,7 +10707,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="39">
+      <c r="A318" s="4">
         <v>317.0</v>
       </c>
       <c r="B318" s="33" t="s">
@@ -10725,7 +10719,7 @@
       <c r="D318" s="35">
         <v>82.0</v>
       </c>
-      <c r="E318" s="40">
+      <c r="E318" s="38">
         <f t="shared" si="4"/>
         <v>1.988E+33</v>
       </c>
@@ -10741,7 +10735,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="37">
+      <c r="A319" s="9">
         <v>318.0</v>
       </c>
       <c r="B319" s="29" t="s">
@@ -10753,11 +10747,11 @@
       <c r="D319" s="31">
         <v>17.0</v>
       </c>
-      <c r="E319" s="38">
+      <c r="E319" s="37">
         <f>  2 * POWER(10,36)</f>
         <v>2E+36</v>
       </c>
-      <c r="F319" s="38">
+      <c r="F319" s="37">
         <f>  2.18 * POWER(10,15)</f>
         <v>2.18E+15</v>
       </c>
@@ -10769,7 +10763,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="39">
+      <c r="A320" s="4">
         <v>319.0</v>
       </c>
       <c r="B320" s="33" t="s">
@@ -10781,11 +10775,11 @@
       <c r="D320" s="35">
         <v>60.0</v>
       </c>
-      <c r="E320" s="40">
+      <c r="E320" s="38">
         <f>  4 * POWER(10,33)</f>
         <v>4E+33</v>
       </c>
-      <c r="F320" s="40">
+      <c r="F320" s="38">
         <f>  1.14 * POWER(10,14)</f>
         <v>114000000000000</v>
       </c>
@@ -10797,7 +10791,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="37">
+      <c r="A321" s="9">
         <v>320.0</v>
       </c>
       <c r="B321" s="29" t="s">
@@ -10809,25 +10803,25 @@
       <c r="D321" s="31">
         <v>78.0</v>
       </c>
-      <c r="E321" s="38">
+      <c r="E321" s="37">
         <f> 9.2 * POWER(10,30)</f>
         <v>9.2E+30</v>
       </c>
-      <c r="F321" s="38">
+      <c r="F321" s="37">
         <f> 4.73 * POWER(10,13)</f>
         <v>47300000000000</v>
       </c>
-      <c r="G321" s="38">
+      <c r="G321" s="37">
         <f> 10 * POWER(10,3)</f>
         <v>10000</v>
       </c>
-      <c r="H321" s="41">
+      <c r="H321" s="39">
         <f> 10 * POWER(10,7)</f>
         <v>100000000</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="39">
+      <c r="A322" s="4">
         <v>321.0</v>
       </c>
       <c r="B322" s="33" t="s">
@@ -10839,11 +10833,11 @@
       <c r="D322" s="35">
         <v>72.0</v>
       </c>
-      <c r="E322" s="40">
+      <c r="E322" s="38">
         <f> 6 * POWER(10,32)</f>
         <v>6E+32</v>
       </c>
-      <c r="F322" s="40">
+      <c r="F322" s="38">
         <f> 2 * POWER(10,14)</f>
         <v>200000000000000</v>
       </c>
@@ -10855,7 +10849,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="37">
+      <c r="A323" s="9">
         <v>322.0</v>
       </c>
       <c r="B323" s="29" t="s">
@@ -10867,8 +10861,8 @@
       <c r="D323" s="11">
         <v>80.0</v>
       </c>
-      <c r="E323" s="38"/>
-      <c r="F323" s="38">
+      <c r="E323" s="37"/>
+      <c r="F323" s="37">
         <f> 1.9 * POWER(10,15)</f>
         <v>1.9E+15</v>
       </c>
@@ -10880,7 +10874,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="39">
+      <c r="A324" s="4">
         <v>323.0</v>
       </c>
       <c r="B324" s="33" t="s">
@@ -10892,11 +10886,11 @@
       <c r="D324" s="35">
         <v>33.0</v>
       </c>
-      <c r="E324" s="40">
+      <c r="E324" s="38">
         <f> 2 * POWER(10,35)</f>
         <v>2E+35</v>
       </c>
-      <c r="F324" s="40">
+      <c r="F324" s="38">
         <f> 3.3 * POWER(10,15)</f>
         <v>3.3E+15</v>
       </c>
@@ -10908,7 +10902,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="37">
+      <c r="A325" s="9">
         <v>324.0</v>
       </c>
       <c r="B325" s="29" t="s">
@@ -10920,11 +10914,11 @@
       <c r="D325" s="31">
         <v>73.0</v>
       </c>
-      <c r="E325" s="38">
+      <c r="E325" s="37">
         <f> 2 * POWER(10,34)</f>
         <v>2E+34</v>
       </c>
-      <c r="F325" s="38">
+      <c r="F325" s="37">
         <f> 9.5 * POWER(10,14)</f>
         <v>950000000000000</v>
       </c>
@@ -10936,7 +10930,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="39">
+      <c r="A326" s="4">
         <v>325.0</v>
       </c>
       <c r="B326" s="33" t="s">
@@ -10948,11 +10942,11 @@
       <c r="D326" s="35">
         <v>72.0</v>
       </c>
-      <c r="E326" s="40">
+      <c r="E326" s="38">
         <f> 1.6 * POWER(10,33)</f>
         <v>1.6E+33</v>
       </c>
-      <c r="F326" s="40">
+      <c r="F326" s="38">
         <f> 1.42 * POWER(10,14)</f>
         <v>142000000000000</v>
       </c>
@@ -10964,7 +10958,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="37">
+      <c r="A327" s="9">
         <v>326.0</v>
       </c>
       <c r="B327" s="29" t="s">
@@ -10974,7 +10968,7 @@
       <c r="D327" s="31">
         <v>11.0</v>
       </c>
-      <c r="E327" s="38">
+      <c r="E327" s="37">
         <f> 2 * POWER(10,10)</f>
         <v>20000000000</v>
       </c>
@@ -10989,7 +10983,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="39">
+      <c r="A328" s="4">
         <v>327.0</v>
       </c>
       <c r="B328" s="33" t="s">
@@ -10999,7 +10993,7 @@
       <c r="D328" s="35">
         <v>40.0</v>
       </c>
-      <c r="E328" s="40">
+      <c r="E328" s="38">
         <f> 1 * POWER(10,10)</f>
         <v>10000000000</v>
       </c>
@@ -11014,7 +11008,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="37">
+      <c r="A329" s="9">
         <v>328.0</v>
       </c>
       <c r="B329" s="29" t="s">
@@ -11026,11 +11020,11 @@
       <c r="D329" s="31">
         <v>34.0</v>
       </c>
-      <c r="E329" s="38">
+      <c r="E329" s="37">
         <f> 3.8 * POWER(10,27)</f>
         <v>3.8E+27</v>
       </c>
-      <c r="F329" s="38">
+      <c r="F329" s="37">
         <f> 8.3 * POWER(10,7)</f>
         <v>83000000</v>
       </c>
@@ -11042,7 +11036,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="39">
+      <c r="A330" s="4">
         <v>329.0</v>
       </c>
       <c r="B330" s="33" t="s">
@@ -11054,11 +11048,11 @@
       <c r="D330" s="35">
         <v>40.0</v>
       </c>
-      <c r="E330" s="40">
+      <c r="E330" s="38">
         <f> 4.5 * POWER(10,27)</f>
         <v>4.5E+27</v>
       </c>
-      <c r="F330" s="40">
+      <c r="F330" s="38">
         <f> 1.1 * POWER(10,8)</f>
         <v>110000000</v>
       </c>
@@ -11070,7 +11064,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="37">
+      <c r="A331" s="9">
         <v>330.0</v>
       </c>
       <c r="B331" s="29" t="s">
@@ -11082,11 +11076,11 @@
       <c r="D331" s="31">
         <v>88.0</v>
       </c>
-      <c r="E331" s="38">
+      <c r="E331" s="37">
         <f> 3.4 * POWER(10,27)</f>
         <v>3.4E+27</v>
       </c>
-      <c r="F331" s="38">
+      <c r="F331" s="37">
         <f> 8.1 * POWER(10,7)</f>
         <v>81000000</v>
       </c>
@@ -11098,7 +11092,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="39">
+      <c r="A332" s="4">
         <v>331.0</v>
       </c>
       <c r="B332" s="33" t="s">
@@ -11110,11 +11104,11 @@
       <c r="D332" s="35">
         <v>31.0</v>
       </c>
-      <c r="E332" s="40">
+      <c r="E332" s="38">
         <f> 3 * POWER(10,25)</f>
         <v>3E+25</v>
       </c>
-      <c r="F332" s="40">
+      <c r="F332" s="38">
         <f> 9.6 * POWER(10,6)</f>
         <v>9600000</v>
       </c>
@@ -11126,7 +11120,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="37">
+      <c r="A333" s="9">
         <v>332.0</v>
       </c>
       <c r="B333" s="29" t="s">
@@ -11138,8 +11132,8 @@
       <c r="D333" s="31">
         <v>31.0</v>
       </c>
-      <c r="E333" s="38"/>
-      <c r="F333" s="38">
+      <c r="E333" s="37"/>
+      <c r="F333" s="37">
         <f> 1.46 * POWER(10,6)</f>
         <v>1460000</v>
       </c>
@@ -11147,7 +11141,7 @@
       <c r="H333" s="32"/>
     </row>
     <row r="334">
-      <c r="A334" s="39">
+      <c r="A334" s="4">
         <v>333.0</v>
       </c>
       <c r="B334" s="33" t="s">
@@ -11159,7 +11153,7 @@
       <c r="D334" s="35">
         <v>62.0</v>
       </c>
-      <c r="E334" s="40">
+      <c r="E334" s="38">
         <f> 2.2 * POWER(10,27)</f>
         <v>2.2E+27</v>
       </c>
@@ -11174,375 +11168,380 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="37">
+      <c r="A335" s="9">
         <v>334.0</v>
       </c>
       <c r="B335" s="29" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C335" s="30">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D335" s="31">
-        <v>88.0</v>
-      </c>
-      <c r="E335" s="38"/>
-      <c r="F335" s="30"/>
-      <c r="G335" s="30">
-        <v>1200.0</v>
-      </c>
-      <c r="H335" s="32">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="39">
-        <v>334.0</v>
-      </c>
-      <c r="B336" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="C336" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="D336" s="35">
         <v>15.0</v>
       </c>
-      <c r="E336" s="40">
+      <c r="E335" s="37">
         <f> 1.72 * POWER(10,25)</f>
         <v>1.72E+25</v>
       </c>
-      <c r="F336" s="34">
+      <c r="F335" s="30">
         <v>9618.0</v>
       </c>
-      <c r="G336" s="34">
+      <c r="G335" s="30">
         <v>259.0</v>
       </c>
-      <c r="H336" s="36">
+      <c r="H335" s="32">
         <v>292.0</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="37">
+    <row r="336">
+      <c r="A336" s="4">
         <v>335.0</v>
       </c>
-      <c r="B337" s="29" t="s">
+      <c r="B336" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="C337" s="30">
+      <c r="C336" s="34">
         <v>2.0</v>
       </c>
-      <c r="D337" s="31">
+      <c r="D336" s="35">
         <v>62.0</v>
       </c>
-      <c r="E337" s="38">
+      <c r="E336" s="38">
         <f> 8.74 * POWER(10,26)</f>
         <v>8.74E+26</v>
       </c>
-      <c r="F337" s="38">
+      <c r="F336" s="38">
         <f> 1.13 * POWER(10,8)</f>
         <v>113000000</v>
       </c>
+      <c r="G336" s="34"/>
+      <c r="H336" s="36">
+        <v>1260.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="9">
+        <v>336.0</v>
+      </c>
+      <c r="B337" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C337" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D337" s="31">
+        <v>49.0</v>
+      </c>
+      <c r="E337" s="37">
+        <f> 3.3 * POWER(10,25)</f>
+        <v>3.3E+25</v>
+      </c>
+      <c r="F337" s="30">
+        <v>9600.0</v>
+      </c>
       <c r="G337" s="30"/>
       <c r="H337" s="32">
-        <v>1260.0</v>
+        <v>313.0</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="39">
-        <v>336.0</v>
+      <c r="A338" s="4">
+        <v>337.0</v>
       </c>
       <c r="B338" s="33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C338" s="34">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D338" s="35">
-        <v>49.0</v>
-      </c>
-      <c r="E338" s="40">
-        <f> 3.3 * POWER(10,25)</f>
-        <v>3.3E+25</v>
-      </c>
-      <c r="F338" s="34">
-        <v>9600.0</v>
-      </c>
-      <c r="G338" s="34"/>
-      <c r="H338" s="36">
-        <v>313.0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="37">
-        <v>337.0</v>
-      </c>
-      <c r="B339" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="C339" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="D339" s="31">
         <v>73.0</v>
       </c>
-      <c r="E339" s="38">
+      <c r="E338" s="38">
         <f> 4.74 * POWER(10,27)</f>
         <v>4.74E+27</v>
       </c>
-      <c r="F339" s="30">
+      <c r="F338" s="34">
         <v>82500.0</v>
       </c>
-      <c r="G339" s="30">
+      <c r="G338" s="34">
         <v>72.0</v>
       </c>
-      <c r="H339" s="32">
+      <c r="H338" s="36">
         <v>72.0</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="39">
+    <row r="339">
+      <c r="A339" s="9">
         <v>338.0</v>
       </c>
-      <c r="B340" s="33" t="s">
+      <c r="B339" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="C340" s="34">
+      <c r="C339" s="30">
         <v>1.0</v>
       </c>
-      <c r="D340" s="35">
+      <c r="D339" s="31">
         <v>4.0</v>
       </c>
-      <c r="E340" s="40">
+      <c r="E339" s="37">
         <f> 1.3 * POWER(10,25)</f>
         <v>1.3E+25</v>
       </c>
-      <c r="F340" s="34"/>
-      <c r="G340" s="34">
+      <c r="F339" s="30"/>
+      <c r="G339" s="30">
         <v>614.0</v>
       </c>
-      <c r="H340" s="36">
+      <c r="H339" s="32">
         <v>614.0</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="37">
+    <row r="340">
+      <c r="A340" s="4">
         <v>339.0</v>
       </c>
-      <c r="B341" s="29" t="s">
+      <c r="B340" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="C341" s="30">
+      <c r="C340" s="34">
         <v>3.0</v>
       </c>
-      <c r="D341" s="31">
+      <c r="D340" s="35">
         <v>31.0</v>
       </c>
-      <c r="E341" s="38">
+      <c r="E340" s="38">
         <f> 1.37 * POWER(10,25)</f>
         <v>1.37E+25</v>
       </c>
+      <c r="F340" s="34">
+        <v>17050.0</v>
+      </c>
+      <c r="G340" s="34">
+        <v>374.0</v>
+      </c>
+      <c r="H340" s="36">
+        <v>374.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="9">
+        <v>340.0</v>
+      </c>
+      <c r="B341" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C341" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D341" s="31">
+        <v>55.0</v>
+      </c>
+      <c r="E341" s="37">
+        <f> 1.85 * POWER(10,30)</f>
+        <v>1.85E+30</v>
+      </c>
       <c r="F341" s="30">
-        <v>17050.0</v>
+        <v>10009.0</v>
       </c>
       <c r="G341" s="30">
-        <v>374.0</v>
+        <v>5250.0</v>
       </c>
       <c r="H341" s="32">
-        <v>374.0</v>
+        <v>5250.0</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="39">
-        <v>340.0</v>
+      <c r="A342" s="4">
+        <v>341.0</v>
       </c>
       <c r="B342" s="33" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C342" s="34">
         <v>1.0</v>
       </c>
       <c r="D342" s="35">
-        <v>55.0</v>
-      </c>
-      <c r="E342" s="40">
-        <f> 1.85 * POWER(10,30)</f>
-        <v>1.85E+30</v>
-      </c>
-      <c r="F342" s="34">
-        <v>10009.0</v>
-      </c>
-      <c r="G342" s="34">
-        <v>5250.0</v>
-      </c>
-      <c r="H342" s="36">
-        <v>5250.0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="37">
-        <v>341.0</v>
-      </c>
-      <c r="B343" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="C343" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D343" s="31">
         <v>12.0</v>
       </c>
-      <c r="E343" s="38">
+      <c r="E342" s="38">
         <f> 4.78 * POWER(10,25)</f>
         <v>4.78E+25</v>
       </c>
+      <c r="F342" s="34">
+        <v>13100.0</v>
+      </c>
+      <c r="G342" s="34"/>
+      <c r="H342" s="36">
+        <v>2700.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="9">
+        <v>342.0</v>
+      </c>
+      <c r="B343" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C343" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="D343" s="31">
+        <v>31.0</v>
+      </c>
+      <c r="E343" s="37">
+        <f> 3.35 * POWER(10,29)</f>
+        <v>3.35E+29</v>
+      </c>
       <c r="F343" s="30">
-        <v>13100.0</v>
-      </c>
-      <c r="G343" s="30"/>
+        <v>53891.0</v>
+      </c>
+      <c r="G343" s="30">
+        <v>173.0</v>
+      </c>
       <c r="H343" s="32">
-        <v>2700.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="39">
-        <v>342.0</v>
+      <c r="A344" s="4">
+        <v>343.0</v>
       </c>
       <c r="B344" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="C344" s="34">
-        <v>2.0</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C344" s="34"/>
       <c r="D344" s="35">
         <v>31.0</v>
       </c>
-      <c r="E344" s="40">
-        <f> 3.35 * POWER(10,29)</f>
-        <v>3.35E+29</v>
-      </c>
-      <c r="F344" s="34">
-        <v>53891.0</v>
-      </c>
-      <c r="G344" s="34">
-        <v>173.0</v>
-      </c>
-      <c r="H344" s="36">
-        <v>173.0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="37">
-        <v>343.0</v>
-      </c>
-      <c r="B345" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="C345" s="30"/>
-      <c r="D345" s="31">
-        <v>31.0</v>
-      </c>
-      <c r="E345" s="38">
+      <c r="E344" s="38">
         <f> 8.28 * POWER(10,24)</f>
         <v>8.28E+24</v>
       </c>
+      <c r="F344" s="34">
+        <v>7454.0</v>
+      </c>
+      <c r="G344" s="34">
+        <v>192.0</v>
+      </c>
+      <c r="H344" s="36">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="9">
+        <v>344.0</v>
+      </c>
+      <c r="B345" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C345" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="D345" s="31">
+        <v>8.0</v>
+      </c>
+      <c r="E345" s="37">
+        <f> 1.39 * POWER(10,30)</f>
+        <v>1.39E+30</v>
+      </c>
       <c r="F345" s="30">
-        <v>7454.0</v>
+        <v>130044.0</v>
       </c>
       <c r="G345" s="30">
-        <v>192.0</v>
+        <v>2900.0</v>
       </c>
       <c r="H345" s="32">
-        <v>250.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="39">
-        <v>344.0</v>
+      <c r="A346" s="4">
+        <v>345.0</v>
       </c>
       <c r="B346" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C346" s="34">
         <v>2.0</v>
       </c>
       <c r="D346" s="35">
-        <v>8.0</v>
-      </c>
-      <c r="E346" s="40">
-        <f> 1.39 * POWER(10,30)</f>
-        <v>1.39E+30</v>
+        <v>67.0</v>
+      </c>
+      <c r="E346" s="38">
+        <f> 1.746 * POWER(10,27)</f>
+        <v>1.746E+27</v>
       </c>
       <c r="F346" s="34">
-        <v>130044.0</v>
+        <v>128600.0</v>
       </c>
       <c r="G346" s="34">
-        <v>2900.0</v>
+        <v>2190.0</v>
       </c>
       <c r="H346" s="36">
-        <v>3200.0</v>
+        <v>2693.0</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="37">
-        <v>345.0</v>
+      <c r="A347" s="9">
+        <v>346.0</v>
       </c>
       <c r="B347" s="29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C347" s="30">
         <v>2.0</v>
       </c>
       <c r="D347" s="31">
-        <v>67.0</v>
-      </c>
-      <c r="E347" s="38">
-        <f> 1.746 * POWER(10,27)</f>
-        <v>1.746E+27</v>
+        <v>9.0</v>
+      </c>
+      <c r="E347" s="37">
+        <f> 1.32 * POWER(10,27)</f>
+        <v>1.32E+27</v>
       </c>
       <c r="F347" s="30">
-        <v>128600.0</v>
+        <v>12800.0</v>
       </c>
       <c r="G347" s="30">
-        <v>2190.0</v>
+        <v>1100.0</v>
       </c>
       <c r="H347" s="32">
-        <v>2693.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="39">
-        <v>346.0</v>
+      <c r="A348" s="4">
+        <v>347.0</v>
       </c>
       <c r="B348" s="33" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C348" s="34">
         <v>2.0</v>
       </c>
       <c r="D348" s="35">
-        <v>9.0</v>
-      </c>
-      <c r="E348" s="40">
-        <f> 1.32 * POWER(10,27)</f>
-        <v>1.32E+27</v>
+        <v>31.0</v>
+      </c>
+      <c r="E348" s="38">
+        <f> 5.466 * POWER(10,27)</f>
+        <v>5.466E+27</v>
       </c>
       <c r="F348" s="34">
-        <v>12800.0</v>
+        <v>135191.0</v>
       </c>
       <c r="G348" s="34">
-        <v>1100.0</v>
+        <v>3040.0</v>
       </c>
       <c r="H348" s="36">
-        <v>3000.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="37">
-        <v>347.0</v>
+      <c r="A349" s="9">
+        <v>348.0</v>
       </c>
       <c r="B349" s="29" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C349" s="30">
         <v>2.0</v>
@@ -11550,49 +11549,49 @@
       <c r="D349" s="31">
         <v>31.0</v>
       </c>
-      <c r="E349" s="38">
-        <f> 5.466 * POWER(10,27)</f>
-        <v>5.466E+27</v>
-      </c>
-      <c r="F349" s="30">
-        <v>135191.0</v>
-      </c>
-      <c r="G349" s="30">
-        <v>3040.0</v>
-      </c>
-      <c r="H349" s="32">
-        <v>4600.0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="39">
-        <v>348.0</v>
-      </c>
-      <c r="B350" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="C350" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="D350" s="35">
-        <v>31.0</v>
-      </c>
-      <c r="E350" s="40">
+      <c r="E349" s="37">
         <f> 1.29 * POWER(10,28)</f>
         <v>1.29E+28</v>
       </c>
+      <c r="F349" s="30">
+        <v>134500.0</v>
+      </c>
+      <c r="G349" s="30"/>
+      <c r="H349" s="32"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="4">
+        <v>349.0</v>
+      </c>
+      <c r="B350" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C350" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="D350" s="35">
+        <v>52.0</v>
+      </c>
+      <c r="E350" s="38">
+        <f> 1.67216 * POWER(10,25)</f>
+        <v>1.67216E+25</v>
+      </c>
       <c r="F350" s="34">
-        <v>134500.0</v>
-      </c>
-      <c r="G350" s="34"/>
-      <c r="H350" s="36"/>
+        <v>9283.0</v>
+      </c>
+      <c r="G350" s="34">
+        <v>208.0</v>
+      </c>
+      <c r="H350" s="36">
+        <v>733.0</v>
+      </c>
     </row>
     <row r="351">
-      <c r="A351" s="37">
-        <v>349.0</v>
+      <c r="A351" s="9">
+        <v>350.0</v>
       </c>
       <c r="B351" s="29" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C351" s="30">
         <v>1.0</v>
@@ -11600,134 +11599,134 @@
       <c r="D351" s="31">
         <v>52.0</v>
       </c>
-      <c r="E351" s="38">
-        <f> 1.67216 * POWER(10,25)</f>
-        <v>1.67216E+25</v>
+      <c r="E351" s="37">
+        <f> 1.41 * POWER(10,25)</f>
+        <v>1.41E+25</v>
       </c>
       <c r="F351" s="30">
-        <v>9283.0</v>
+        <v>8540.0</v>
       </c>
       <c r="G351" s="30">
-        <v>208.0</v>
+        <v>209.0</v>
       </c>
       <c r="H351" s="32">
-        <v>733.0</v>
+        <v>233.0</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="39">
-        <v>350.0</v>
+      <c r="A352" s="4">
+        <v>351.0</v>
       </c>
       <c r="B352" s="33" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C352" s="34">
         <v>1.0</v>
       </c>
       <c r="D352" s="35">
-        <v>52.0</v>
-      </c>
-      <c r="E352" s="40">
-        <f> 1.41 * POWER(10,25)</f>
-        <v>1.41E+25</v>
-      </c>
-      <c r="F352" s="34">
-        <v>8540.0</v>
-      </c>
-      <c r="G352" s="34">
-        <v>209.0</v>
-      </c>
-      <c r="H352" s="36">
-        <v>233.0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="37">
-        <v>351.0</v>
-      </c>
-      <c r="B353" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="C353" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D353" s="31">
         <v>31.0</v>
       </c>
-      <c r="E353" s="38">
+      <c r="E352" s="38">
         <f> 1.28 * POWER(10,25)</f>
         <v>1.28E+25</v>
       </c>
-      <c r="F353" s="30">
+      <c r="F352" s="34">
         <v>11140.0</v>
       </c>
-      <c r="G353" s="30">
+      <c r="G352" s="34">
         <v>325.0</v>
       </c>
-      <c r="H353" s="32">
+      <c r="H352" s="36">
         <v>325.0</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="39">
+    <row r="353">
+      <c r="A353" s="9">
         <v>352.0</v>
       </c>
-      <c r="B354" s="33" t="s">
+      <c r="B353" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="C354" s="34">
+      <c r="C353" s="30">
         <v>2.0</v>
       </c>
-      <c r="D354" s="35">
+      <c r="D353" s="31">
         <v>59.0</v>
       </c>
-      <c r="E354" s="40">
+      <c r="E353" s="37">
         <f> 4.87 * POWER(10,25)</f>
         <v>4.87E+25</v>
       </c>
+      <c r="F353" s="30">
+        <v>17200.0</v>
+      </c>
+      <c r="G353" s="30">
+        <v>990.0</v>
+      </c>
+      <c r="H353" s="32">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="4">
+        <v>353.0</v>
+      </c>
+      <c r="B354" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C354" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="D354" s="35">
+        <v>33.0</v>
+      </c>
+      <c r="E354" s="38">
+        <f> 1.43 * POWER(10,25)</f>
+        <v>1.43E+25</v>
+      </c>
       <c r="F354" s="34">
-        <v>17200.0</v>
-      </c>
-      <c r="G354" s="34">
-        <v>990.0</v>
+        <v>7780.0</v>
+      </c>
+      <c r="G354" s="35">
+        <v>268.8</v>
       </c>
       <c r="H354" s="36">
-        <v>990.0</v>
+        <v>268.8</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="37">
-        <v>353.0</v>
+      <c r="A355" s="9">
+        <v>354.0</v>
       </c>
       <c r="B355" s="29" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C355" s="30">
         <v>1.0</v>
       </c>
       <c r="D355" s="31">
-        <v>33.0</v>
-      </c>
-      <c r="E355" s="38">
-        <f> 1.43 * POWER(10,25)</f>
-        <v>1.43E+25</v>
+        <v>4.0</v>
+      </c>
+      <c r="E355" s="37">
+        <f> 4.133 * POWER(10,24)</f>
+        <v>4.133E+24</v>
       </c>
       <c r="F355" s="30">
-        <v>7780.0</v>
-      </c>
-      <c r="G355" s="31">
-        <v>268.8</v>
+        <v>5860.0</v>
+      </c>
+      <c r="G355" s="30">
+        <v>225.0</v>
       </c>
       <c r="H355" s="32">
-        <v>268.8</v>
+        <v>246.0</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="39">
-        <v>354.0</v>
+      <c r="A356" s="4">
+        <v>355.0</v>
       </c>
       <c r="B356" s="33" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C356" s="34">
         <v>1.0</v>
@@ -11735,26 +11734,26 @@
       <c r="D356" s="35">
         <v>4.0</v>
       </c>
-      <c r="E356" s="40">
-        <f> 4.133 * POWER(10,24)</f>
-        <v>4.133E+24</v>
+      <c r="E356" s="38">
+        <f> 6.19 * POWER(10,24)</f>
+        <v>6.19E+24</v>
       </c>
       <c r="F356" s="34">
-        <v>5860.0</v>
+        <v>6665.2</v>
       </c>
       <c r="G356" s="34">
-        <v>225.0</v>
+        <v>218.0</v>
       </c>
       <c r="H356" s="36">
-        <v>246.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="37">
-        <v>355.0</v>
+      <c r="A357" s="9">
+        <v>356.0</v>
       </c>
       <c r="B357" s="29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C357" s="30">
         <v>1.0</v>
@@ -11762,240 +11761,213 @@
       <c r="D357" s="31">
         <v>4.0</v>
       </c>
-      <c r="E357" s="38">
-        <f> 6.19 * POWER(10,24)</f>
-        <v>6.19E+24</v>
+      <c r="E357" s="37">
+        <f> 7.90358 * POWER(10,24)</f>
+        <v>7.90358E+24</v>
       </c>
       <c r="F357" s="30">
-        <v>6665.2</v>
+        <v>7200.9</v>
       </c>
       <c r="G357" s="30">
-        <v>218.0</v>
+        <v>197.3</v>
       </c>
       <c r="H357" s="32">
-        <v>218.0</v>
+        <v>198.6</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="39">
-        <v>356.0</v>
+      <c r="A358" s="4">
+        <v>357.0</v>
       </c>
       <c r="B358" s="33" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C358" s="34">
         <v>1.0</v>
       </c>
       <c r="D358" s="35">
-        <v>4.0</v>
-      </c>
-      <c r="E358" s="40">
-        <f> 7.90358 * POWER(10,24)</f>
-        <v>7.90358E+24</v>
+        <v>19.0</v>
+      </c>
+      <c r="E358" s="38">
+        <f> 7.6 * POWER(10,24)</f>
+        <v>7.6E+24</v>
       </c>
       <c r="F358" s="34">
-        <v>7200.9</v>
+        <v>7455.0</v>
       </c>
       <c r="G358" s="34">
-        <v>197.3</v>
+        <v>3000.0</v>
       </c>
       <c r="H358" s="36">
-        <v>198.6</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="37">
-        <v>357.0</v>
+      <c r="A359" s="9">
+        <v>358.0</v>
       </c>
       <c r="B359" s="29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C359" s="30">
         <v>1.0</v>
       </c>
       <c r="D359" s="31">
-        <v>19.0</v>
-      </c>
-      <c r="E359" s="38">
-        <f> 7.6 * POWER(10,24)</f>
-        <v>7.6E+24</v>
+        <v>86.0</v>
+      </c>
+      <c r="E359" s="37">
+        <f> 8.306 * POWER(10,24)</f>
+        <v>8.306E+24</v>
       </c>
       <c r="F359" s="30">
-        <v>7455.0</v>
+        <v>7008.0</v>
       </c>
       <c r="G359" s="30">
-        <v>3000.0</v>
+        <v>213.0</v>
       </c>
       <c r="H359" s="32">
-        <v>3000.0</v>
+        <v>294.0</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="39">
-        <v>358.0</v>
+      <c r="A360" s="4">
+        <v>359.0</v>
       </c>
       <c r="B360" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C360" s="34">
         <v>1.0</v>
       </c>
       <c r="D360" s="35">
-        <v>86.0</v>
-      </c>
-      <c r="E360" s="40">
-        <f> 8.306 * POWER(10,24)</f>
-        <v>8.306E+24</v>
+        <v>34.0</v>
+      </c>
+      <c r="E360" s="38">
+        <f> 1.94 * POWER(10,25)</f>
+        <v>1.94E+25</v>
       </c>
       <c r="F360" s="34">
-        <v>7008.0</v>
+        <v>8930.0</v>
       </c>
       <c r="G360" s="34">
-        <v>213.0</v>
+        <v>50.0</v>
       </c>
       <c r="H360" s="36">
-        <v>294.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="37">
-        <v>359.0</v>
+      <c r="A361" s="9">
+        <v>360.0</v>
       </c>
       <c r="B361" s="29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C361" s="30">
         <v>1.0</v>
       </c>
       <c r="D361" s="31">
-        <v>34.0</v>
-      </c>
-      <c r="E361" s="38">
-        <f> 1.94 * POWER(10,25)</f>
-        <v>1.94E+25</v>
-      </c>
-      <c r="F361" s="30">
-        <v>8930.0</v>
-      </c>
-      <c r="G361" s="30">
-        <v>50.0</v>
-      </c>
-      <c r="H361" s="32">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="39">
-        <v>360.0</v>
-      </c>
-      <c r="B362" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="C362" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="D362" s="35">
         <v>52.0</v>
       </c>
-      <c r="E362" s="40">
+      <c r="E361" s="37">
         <f> 5.79384 * POWER(10,25)</f>
         <v>5.79384E+25</v>
       </c>
+      <c r="F361" s="30">
+        <v>6900.0</v>
+      </c>
+      <c r="G361" s="30">
+        <v>1040.0</v>
+      </c>
+      <c r="H361" s="32">
+        <v>1040.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="4">
+        <v>361.0</v>
+      </c>
+      <c r="B362" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C362" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="D362" s="35">
+        <v>12.0</v>
+      </c>
+      <c r="E362" s="38">
+        <f> 2.37 * POWER(10,25)</f>
+        <v>2.37E+25</v>
+      </c>
       <c r="F362" s="34">
-        <v>6900.0</v>
+        <v>69911.0</v>
       </c>
       <c r="G362" s="34">
-        <v>1040.0</v>
+        <v>547.0</v>
       </c>
       <c r="H362" s="36">
-        <v>1040.0</v>
+        <v>615.0</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="37">
-        <v>361.0</v>
+      <c r="A363" s="9">
+        <v>362.0</v>
       </c>
       <c r="B363" s="29" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C363" s="30">
         <v>2.0</v>
       </c>
       <c r="D363" s="31">
-        <v>12.0</v>
-      </c>
-      <c r="E363" s="38">
-        <f> 2.37 * POWER(10,25)</f>
-        <v>2.37E+25</v>
-      </c>
-      <c r="F363" s="30">
-        <v>69911.0</v>
-      </c>
-      <c r="G363" s="30">
-        <v>547.0</v>
-      </c>
-      <c r="H363" s="32">
-        <v>615.0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="39">
-        <v>362.0</v>
-      </c>
-      <c r="B364" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="C364" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="D364" s="35">
         <v>31.0</v>
       </c>
-      <c r="E364" s="40">
+      <c r="E363" s="37">
         <f> 8.24 * POWER(10,25)</f>
         <v>8.24E+25</v>
       </c>
-      <c r="F364" s="34">
+      <c r="F363" s="30">
         <v>29180.0</v>
       </c>
-      <c r="G364" s="34">
+      <c r="G363" s="30">
         <v>630.0</v>
       </c>
-      <c r="H364" s="36">
+      <c r="H363" s="32">
         <v>950.0</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="42">
+    <row r="364">
+      <c r="A364" s="40">
         <v>363.0</v>
       </c>
-      <c r="B365" s="43" t="s">
+      <c r="B364" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="C365" s="44">
+      <c r="C364" s="42">
         <v>3.0</v>
       </c>
-      <c r="D365" s="45">
+      <c r="D364" s="43">
         <v>73.0</v>
       </c>
-      <c r="E365" s="46">
+      <c r="E364" s="44">
         <f> 3.28 * POWER(10,25)</f>
         <v>3.28E+25</v>
       </c>
-      <c r="F365" s="44"/>
-      <c r="G365" s="44">
+      <c r="F364" s="42"/>
+      <c r="G364" s="42">
         <v>50.0</v>
       </c>
-      <c r="H365" s="47">
+      <c r="H364" s="45">
         <v>50.0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:H365">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:H364">
       <formula1>AND(ISNUMBER(C2),(NOT(OR(NOT(ISERROR(DATEVALUE(C2))), AND(ISNUMBER(C2), LEFT(CELL("format", C2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B2:B365">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B2:B364">
       <formula1>"Sun ,Mercury,Venus,Earth,Moon,Mars,Phobos,Deimos,Jupiter,Io,Callisto,Ganymede,Europa,Saturn ,Titan,Enceladus,Mimas,Dione,Iapetus,Tethys,Uranus,Titania ,Umbriel,Miranda,Ariel ,Oberon,Sycorax,Neptune,Triton,Hippocamp,Nereid,Galatea,Halimede,Pluto,Thalassa,D"&amp;"espina,Neso,Naiad,Psamathe,Laomedeia,Proteus,Larissa,Sao,S/2002 N5,S/2021 N1,Phoebe,Hyperion,Halley's Comet,Sirius A,Sirius B ,Proxima Centauri,Barnard's Star,Lalande 21185,Lacaille 9352,Luyten's Star,YZ Ceti,Gliese 1061,Teegarden's Star,Wolf 1061,Gliese "&amp;"876,82 G. Eridani,Gliese 581,Gliese 667 C,HD 219134,61 Virginis,Gliese 433,Gliese 357,L 98-59,Gliese 414 A,Gliese 806,TRAPPIST-1,55 Cancri,Gliese 180,HD 69830,HD 40307,Upsilon Andromedae,47 Ursae Majoris,Nu2 Lupi,LHS 1140,Gliese 163,Mu Arae,GJ 3929,Gliese"&amp;" 676 A,HD 7924,Pi Mensae,Gliese 3293,LHS 1678,HD 104067,HD 142,HD 215152,HD 164922,HD 63433,HIP 57274,HD 39194,LP 791-18,HD 181433,HD 134606,HD 158259,HD 82943,Gliese 3138,GJ 9827,K2-239,TOI-700,HD 17926,HD 37124,HD 20781,Kepler-444,HD 141399,Kepler-42,HD"&amp;" 31527,HD 10180,HD 23472,HR 8799,HD 27894,HD 93385,K2-3,HD 34445,HD 204313,HD 3167,HIP 34269,HD 133131,K2-136,HIP 14810,HD 191939,HD 125612,HD 184010,HD 109271,HD 38677,TOI-178,HD 108236,Kepler-37,K2-72,Kepler-138,K2-233,TOI-1260,LP 358-499,K2-266,K2-155,"&amp;"K2-384,TOI-1136,TOI-561,Kepler-445,TOI-763,K2-229,Kepler-102,V1298 Tauri,K2-302,K2-198,TOI-125,HIP 41378,Kepler-446,HD 33142,WASP-132,K2-148,Kepler-68,HD 28109,COROT-7,XO-2,Kepler-411,K2-381,K2-285,K2-32,TOI-1246,K2-352,Kepler-398,Kepler-186,K2-37,K2-58,K"&amp;"2-138,K2-38,WASP-47,K2-368,HAT-P-13,Kepler-19,Kepler-296,Kepler-454,Kepler-25,Kepler-114,Kepler-54,Kepler-20,K2-19,PSR B1257+12,Kepler-62,Kepler-48,Kepler-100,Kepler-49,Kepler-65,Kepler-52,K2-314,K2-219,K2-268,K2-183,K2-187,Kepler-1542,Kepler-26,Kepler-16"&amp;"7,Kepler-81,Kepler-132,Kepler-80,Kepler-159,K2-299,Kepler-88,Kepler-174,Kepler-32,Kepler-83,TOI-1338,Kepler-271,Kepler-169,Kepler-451,Kepler-304,Kepler-18,Kepler-106,Kepler-92,Kepler-450,Kepler-89,Kepler-1388,K2-282,Kepler-107,Kepler-176,Kepler-1047,Keple"&amp;"r-55,Kepler-166,Kepler-11,Kepler-1254,Kepler-289,Kepler-85,Kepler-157,Kepler-342,Kepler-148,Kepler-51,Kepler-403,Kepler-9,Kepler-23,Kepler-46,Kepler-305,Kepler-90,Kepler-150,Kepler-82,Kepler-154,Kepler-56,Kepler-350,Kepler-603,Kepler-160,Kepler-401,Kepler"&amp;"-58,Kepler-79,Kepler-60,Kepler-122,Kepler-279,Kepler-255,Kepler-47,Kepler-292,Kepler-27,Kepler-351,Kepler-276,Kepler-24,Kepler-87,Kepler-33,Kepler-282,Kepler-758,Kepler-53,Kepler-30,Kepler-84,Kepler-385,Kepler-31,Kepler-238,Kepler-245,Kepler-218,Kepler-21"&amp;"7,Kepler-192,Kepler-191,Kepler-431,Kepler-338,Kepler-197,Kepler-247,Kepler-104,Kepler-126,Kepler-127,Kepler-130,Kepler-164,Kepler-171,Kepler-172,Kepler-149,Kepler-142,Kepler-124,Kepler-402,Kepler-399,Kepler-374,Kepler-372,Kepler-363,Kepler-359,Kepler-357,"&amp;"Kepler-354,Kepler-206,Kepler-203,Kepler-194,Kepler-184,Kepler-178,Kepler-336,Kepler-334,Kepler-332,Kepler-331,Kepler-327,Kepler-326,Kepler-325"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12023,408 +11995,408 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="46" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48">
+      <c r="A2" s="46">
         <v>1.0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="46" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48">
+      <c r="A3" s="46">
         <v>2.0</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="46" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48">
+      <c r="A4" s="46">
         <v>3.0</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="46" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48">
+      <c r="A5" s="46">
         <v>4.0</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="46" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48">
+      <c r="A6" s="46">
         <v>5.0</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="46" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48">
+      <c r="A7" s="46">
         <v>6.0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="46" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="48" t="s">
+      <c r="A8" s="46">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="46" t="s">
         <v>388</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="46" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48">
+      <c r="A9" s="46">
         <v>8.0</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="46" t="s">
         <v>390</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="47" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48">
+      <c r="A10" s="46">
         <v>9.0</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>392</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="46" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48">
+      <c r="A11" s="46">
         <v>10.0</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="46" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48">
+      <c r="A12" s="46">
         <v>11.0</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="46" t="s">
         <v>396</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="46" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48">
+      <c r="A13" s="46">
         <v>12.0</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="46" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="48">
+      <c r="A14" s="46">
         <v>13.0</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="46" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48">
+      <c r="A15" s="46">
         <v>14.0</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="46" t="s">
         <v>404</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="46" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="48">
+      <c r="A16" s="46">
         <v>15.0</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="46" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="48">
+      <c r="A17" s="46">
         <v>16.0</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="46" t="s">
         <v>408</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="46" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48">
+      <c r="A18" s="46">
         <v>17.0</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>410</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="46" t="s">
         <v>411</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="46" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48">
+      <c r="A19" s="46">
         <v>18.0</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>410</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="47" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48">
+      <c r="A20" s="46">
         <v>19.0</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>410</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="46" t="s">
         <v>415</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="46" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="48">
+      <c r="A21" s="46">
         <v>20.0</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>410</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="46" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="48">
+      <c r="A22" s="46">
         <v>21.0</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>419</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="46" t="s">
         <v>420</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="46" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="48">
+      <c r="A23" s="46">
         <v>22.0</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="46" t="s">
         <v>419</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="46" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="48">
+      <c r="A24" s="46">
         <v>21.0</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="46" t="s">
         <v>424</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="46" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="48">
+      <c r="A25" s="46">
         <v>22.0</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="46" t="s">
         <v>426</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="46" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="48">
+      <c r="A26" s="46">
         <v>23.0</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="46" t="s">
         <v>428</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="46" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="48">
+      <c r="A27" s="46">
         <v>24.0</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="46" t="s">
         <v>430</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="46" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="48">
+      <c r="A28" s="46">
         <v>25.0</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="46" t="s">
         <v>419</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="46" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="48">
+      <c r="A29" s="46">
         <v>26.0</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="46" t="s">
         <v>435</v>
       </c>
     </row>
@@ -12448,1068 +12420,1068 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>436</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48">
+      <c r="A2" s="46">
         <v>1.0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="48" t="s">
         <v>437</v>
       </c>
-      <c r="C2" s="51" t="str">
+      <c r="C2" s="49" t="str">
         <f t="shared" ref="C2:C89" si="1">LEFT(B2, FIND("/", B2)-2) </f>
         <v>Andromeda</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48">
+      <c r="A3" s="46">
         <v>2.0</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="51" t="str">
+      <c r="C3" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Antlia</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48">
+      <c r="A4" s="46">
         <v>3.0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>439</v>
       </c>
-      <c r="C4" s="51" t="str">
+      <c r="C4" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Apus</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48">
+      <c r="A5" s="46">
         <v>4.0</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>440</v>
       </c>
-      <c r="C5" s="51" t="str">
+      <c r="C5" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Aquarius</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48">
+      <c r="A6" s="46">
         <v>5.0</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>441</v>
       </c>
-      <c r="C6" s="51" t="str">
+      <c r="C6" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Aquila</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48">
+      <c r="A7" s="46">
         <v>6.0</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>442</v>
       </c>
-      <c r="C7" s="51" t="str">
+      <c r="C7" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Ara</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="46">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="48" t="s">
         <v>443</v>
       </c>
-      <c r="C8" s="51" t="str">
+      <c r="C8" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Aries</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48">
+      <c r="A9" s="46">
         <v>8.0</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="C9" s="51" t="str">
+      <c r="C9" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Auriga</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48">
+      <c r="A10" s="46">
         <v>9.0</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="48" t="s">
         <v>445</v>
       </c>
-      <c r="C10" s="51" t="str">
+      <c r="C10" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Boötes</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48">
+      <c r="A11" s="46">
         <v>10.0</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="48" t="s">
         <v>446</v>
       </c>
-      <c r="C11" s="51" t="str">
+      <c r="C11" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Caelum</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48">
+      <c r="A12" s="46">
         <v>11.0</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="48" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="51" t="str">
+      <c r="C12" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Camelopardalis</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48">
+      <c r="A13" s="46">
         <v>12.0</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="48" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="51" t="str">
+      <c r="C13" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Cancer</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="48">
+      <c r="A14" s="46">
         <v>13.0</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="48" t="s">
         <v>449</v>
       </c>
-      <c r="C14" s="51" t="str">
+      <c r="C14" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Canes Venatici</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48">
+      <c r="A15" s="46">
         <v>14.0</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="48" t="s">
         <v>450</v>
       </c>
-      <c r="C15" s="51" t="str">
+      <c r="C15" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Canis Major</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="48">
+      <c r="A16" s="46">
         <v>15.0</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="48" t="s">
         <v>451</v>
       </c>
-      <c r="C16" s="51" t="str">
+      <c r="C16" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Canis Minor</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="48">
+      <c r="A17" s="46">
         <v>16.0</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>452</v>
       </c>
-      <c r="C17" s="51" t="str">
+      <c r="C17" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Capricornus</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48">
+      <c r="A18" s="46">
         <v>17.0</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="48" t="s">
         <v>453</v>
       </c>
-      <c r="C18" s="51" t="str">
+      <c r="C18" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Carina</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48">
+      <c r="A19" s="46">
         <v>18.0</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="48" t="s">
         <v>454</v>
       </c>
-      <c r="C19" s="51" t="str">
+      <c r="C19" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Cassiopeia</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48">
+      <c r="A20" s="46">
         <v>19.0</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="C20" s="51" t="str">
+      <c r="C20" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Centaurus</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="48">
+      <c r="A21" s="46">
         <v>20.0</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="48" t="s">
         <v>456</v>
       </c>
-      <c r="C21" s="51" t="str">
+      <c r="C21" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Cepheus</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="48">
+      <c r="A22" s="46">
         <v>21.0</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="48" t="s">
         <v>457</v>
       </c>
-      <c r="C22" s="51" t="str">
+      <c r="C22" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Cetus</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="48">
+      <c r="A23" s="46">
         <v>22.0</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="48" t="s">
         <v>458</v>
       </c>
-      <c r="C23" s="51" t="str">
+      <c r="C23" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Chamaeleon</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="48">
+      <c r="A24" s="46">
         <v>23.0</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="C24" s="51" t="str">
+      <c r="C24" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Circinus</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="48">
+      <c r="A25" s="46">
         <v>24.0</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="48" t="s">
         <v>460</v>
       </c>
-      <c r="C25" s="51" t="str">
+      <c r="C25" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Columba</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="48">
+      <c r="A26" s="46">
         <v>25.0</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="48" t="s">
         <v>461</v>
       </c>
-      <c r="C26" s="51" t="str">
+      <c r="C26" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Coma Berenices</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="48">
+      <c r="A27" s="46">
         <v>26.0</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="48" t="s">
         <v>462</v>
       </c>
-      <c r="C27" s="51" t="str">
+      <c r="C27" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Corona Australis</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="48">
+      <c r="A28" s="46">
         <v>27.0</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="48" t="s">
         <v>463</v>
       </c>
-      <c r="C28" s="51" t="str">
+      <c r="C28" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Corona Borealis</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="48">
+      <c r="A29" s="46">
         <v>28.0</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="48" t="s">
         <v>464</v>
       </c>
-      <c r="C29" s="51" t="str">
+      <c r="C29" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Corvus</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="48">
+      <c r="A30" s="46">
         <v>29.0</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="48" t="s">
         <v>465</v>
       </c>
-      <c r="C30" s="51" t="str">
+      <c r="C30" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Crater</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="48">
+      <c r="A31" s="46">
         <v>30.0</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="C31" s="51" t="str">
+      <c r="C31" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Crux</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="48">
+      <c r="A32" s="46">
         <v>31.0</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="48" t="s">
         <v>467</v>
       </c>
-      <c r="C32" s="51" t="str">
+      <c r="C32" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Cygnus</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="48">
+      <c r="A33" s="46">
         <v>32.0</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="48" t="s">
         <v>468</v>
       </c>
-      <c r="C33" s="51" t="str">
+      <c r="C33" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Delphinus</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="48">
+      <c r="A34" s="46">
         <v>33.0</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="48" t="s">
         <v>469</v>
       </c>
-      <c r="C34" s="51" t="str">
+      <c r="C34" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Dorado</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="48">
+      <c r="A35" s="46">
         <v>34.0</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="48" t="s">
         <v>470</v>
       </c>
-      <c r="C35" s="51" t="str">
+      <c r="C35" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Draco</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="48">
+      <c r="A36" s="46">
         <v>35.0</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="48" t="s">
         <v>471</v>
       </c>
-      <c r="C36" s="51" t="str">
+      <c r="C36" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Equuleus</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="48">
+      <c r="A37" s="46">
         <v>36.0</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="C37" s="51" t="str">
+      <c r="C37" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Eridanus</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="48">
+      <c r="A38" s="46">
         <v>37.0</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="C38" s="51" t="str">
+      <c r="C38" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Fornax</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="48">
+      <c r="A39" s="46">
         <v>38.0</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="C39" s="51" t="str">
+      <c r="C39" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Gemini</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="48">
+      <c r="A40" s="46">
         <v>39.0</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="48" t="s">
         <v>475</v>
       </c>
-      <c r="C40" s="51" t="str">
+      <c r="C40" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Grus</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="48">
+      <c r="A41" s="46">
         <v>40.0</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="C41" s="51" t="str">
+      <c r="C41" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Hercules</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="48">
+      <c r="A42" s="46">
         <v>41.0</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="48" t="s">
         <v>477</v>
       </c>
-      <c r="C42" s="51" t="str">
+      <c r="C42" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Horologium</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="48">
+      <c r="A43" s="46">
         <v>42.0</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="C43" s="51" t="str">
+      <c r="C43" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Hydra</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="48">
+      <c r="A44" s="46">
         <v>43.0</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="48" t="s">
         <v>479</v>
       </c>
-      <c r="C44" s="51" t="str">
+      <c r="C44" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Hydrus</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="48">
+      <c r="A45" s="46">
         <v>44.0</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="48" t="s">
         <v>480</v>
       </c>
-      <c r="C45" s="51" t="str">
+      <c r="C45" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Indus</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="48">
+      <c r="A46" s="46">
         <v>45.0</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="48" t="s">
         <v>481</v>
       </c>
-      <c r="C46" s="51" t="str">
+      <c r="C46" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Lacerta</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="48">
+      <c r="A47" s="46">
         <v>46.0</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="48" t="s">
         <v>482</v>
       </c>
-      <c r="C47" s="51" t="str">
+      <c r="C47" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Leo</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="48">
+      <c r="A48" s="46">
         <v>47.0</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="48" t="s">
         <v>483</v>
       </c>
-      <c r="C48" s="51" t="str">
+      <c r="C48" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Leo Minor</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="48">
+      <c r="A49" s="46">
         <v>48.0</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="48" t="s">
         <v>484</v>
       </c>
-      <c r="C49" s="51" t="str">
+      <c r="C49" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Lepus</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="48">
+      <c r="A50" s="46">
         <v>49.0</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="48" t="s">
         <v>485</v>
       </c>
-      <c r="C50" s="51" t="str">
+      <c r="C50" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Libra</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="48">
+      <c r="A51" s="46">
         <v>50.0</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="C51" s="51" t="str">
+      <c r="C51" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Lupus</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="48">
+      <c r="A52" s="46">
         <v>51.0</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="48" t="s">
         <v>487</v>
       </c>
-      <c r="C52" s="51" t="str">
+      <c r="C52" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Lynx</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="48">
+      <c r="A53" s="46">
         <v>52.0</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="48" t="s">
         <v>488</v>
       </c>
-      <c r="C53" s="51" t="str">
+      <c r="C53" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Lyra</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="48">
+      <c r="A54" s="46">
         <v>53.0</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="48" t="s">
         <v>489</v>
       </c>
-      <c r="C54" s="51" t="str">
+      <c r="C54" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Mensa</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="48">
+      <c r="A55" s="46">
         <v>54.0</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="C55" s="51" t="str">
+      <c r="C55" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Microscopium</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="48">
+      <c r="A56" s="46">
         <v>55.0</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="48" t="s">
         <v>491</v>
       </c>
-      <c r="C56" s="51" t="str">
+      <c r="C56" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Monoceros</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="48">
+      <c r="A57" s="46">
         <v>56.0</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="48" t="s">
         <v>492</v>
       </c>
-      <c r="C57" s="51" t="str">
+      <c r="C57" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Musca</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="48">
+      <c r="A58" s="46">
         <v>57.0</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="48" t="s">
         <v>493</v>
       </c>
-      <c r="C58" s="51" t="str">
+      <c r="C58" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Norma</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="48">
+      <c r="A59" s="46">
         <v>58.0</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="48" t="s">
         <v>494</v>
       </c>
-      <c r="C59" s="51" t="str">
+      <c r="C59" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Octans</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="48">
+      <c r="A60" s="46">
         <v>59.0</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="48" t="s">
         <v>495</v>
       </c>
-      <c r="C60" s="51" t="str">
+      <c r="C60" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Ophiuchus</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="48">
+      <c r="A61" s="46">
         <v>60.0</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="48" t="s">
         <v>496</v>
       </c>
-      <c r="C61" s="51" t="str">
+      <c r="C61" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Orion</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="48">
+      <c r="A62" s="46">
         <v>61.0</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="48" t="s">
         <v>497</v>
       </c>
-      <c r="C62" s="51" t="str">
+      <c r="C62" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Pavo</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="48">
+      <c r="A63" s="46">
         <v>62.0</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="48" t="s">
         <v>498</v>
       </c>
-      <c r="C63" s="51" t="str">
+      <c r="C63" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Pegasus</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="48">
+      <c r="A64" s="46">
         <v>63.0</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="48" t="s">
         <v>499</v>
       </c>
-      <c r="C64" s="51" t="str">
+      <c r="C64" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Perseus</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="48">
+      <c r="A65" s="46">
         <v>64.0</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="48" t="s">
         <v>500</v>
       </c>
-      <c r="C65" s="51" t="str">
+      <c r="C65" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Phoenix</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="48">
+      <c r="A66" s="46">
         <v>65.0</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="48" t="s">
         <v>501</v>
       </c>
-      <c r="C66" s="51" t="str">
+      <c r="C66" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Pictor</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="48">
+      <c r="A67" s="46">
         <v>66.0</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="48" t="s">
         <v>502</v>
       </c>
-      <c r="C67" s="51" t="str">
+      <c r="C67" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Pisces</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="48">
+      <c r="A68" s="46">
         <v>67.0</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="48" t="s">
         <v>503</v>
       </c>
-      <c r="C68" s="51" t="str">
+      <c r="C68" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Piscis Austrinus</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="48">
+      <c r="A69" s="46">
         <v>68.0</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="48" t="s">
         <v>504</v>
       </c>
-      <c r="C69" s="51" t="str">
+      <c r="C69" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Puppis</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="48">
+      <c r="A70" s="46">
         <v>69.0</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="48" t="s">
         <v>505</v>
       </c>
-      <c r="C70" s="51" t="str">
+      <c r="C70" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Pyxis</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="48">
+      <c r="A71" s="46">
         <v>70.0</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="C71" s="51" t="str">
+      <c r="C71" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Reticulum</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="48">
+      <c r="A72" s="46">
         <v>71.0</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="C72" s="51" t="str">
+      <c r="C72" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Sagitta</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="48">
+      <c r="A73" s="46">
         <v>72.0</v>
       </c>
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="48" t="s">
         <v>508</v>
       </c>
-      <c r="C73" s="51" t="str">
+      <c r="C73" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Sagittarius</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="48">
+      <c r="A74" s="46">
         <v>73.0</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="48" t="s">
         <v>509</v>
       </c>
-      <c r="C74" s="51" t="str">
+      <c r="C74" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Scorpius</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="48">
+      <c r="A75" s="46">
         <v>74.0</v>
       </c>
-      <c r="B75" s="50" t="s">
+      <c r="B75" s="48" t="s">
         <v>510</v>
       </c>
-      <c r="C75" s="51" t="str">
+      <c r="C75" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Sculptor</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="48">
+      <c r="A76" s="46">
         <v>75.0</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="48" t="s">
         <v>511</v>
       </c>
-      <c r="C76" s="51" t="str">
+      <c r="C76" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Scutum</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="48">
+      <c r="A77" s="46">
         <v>76.0</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="48" t="s">
         <v>512</v>
       </c>
-      <c r="C77" s="51" t="str">
+      <c r="C77" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Serpens[12]</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="48">
+      <c r="A78" s="46">
         <v>77.0</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="48" t="s">
         <v>513</v>
       </c>
-      <c r="C78" s="51" t="str">
+      <c r="C78" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Sextans</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="48">
+      <c r="A79" s="46">
         <v>78.0</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="48" t="s">
         <v>514</v>
       </c>
-      <c r="C79" s="51" t="str">
+      <c r="C79" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Taurus</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="48">
+      <c r="A80" s="46">
         <v>79.0</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="48" t="s">
         <v>515</v>
       </c>
-      <c r="C80" s="51" t="str">
+      <c r="C80" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Telescopium</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="48">
+      <c r="A81" s="46">
         <v>80.0</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="48" t="s">
         <v>516</v>
       </c>
-      <c r="C81" s="51" t="str">
+      <c r="C81" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Triangulum</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="48">
+      <c r="A82" s="46">
         <v>81.0</v>
       </c>
-      <c r="B82" s="50" t="s">
+      <c r="B82" s="48" t="s">
         <v>517</v>
       </c>
-      <c r="C82" s="51" t="str">
+      <c r="C82" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Triangulum Australe</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="48">
+      <c r="A83" s="46">
         <v>82.0</v>
       </c>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="48" t="s">
         <v>518</v>
       </c>
-      <c r="C83" s="51" t="str">
+      <c r="C83" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Tucana</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="48">
+      <c r="A84" s="46">
         <v>83.0</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="48" t="s">
         <v>519</v>
       </c>
-      <c r="C84" s="51" t="str">
+      <c r="C84" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Ursa Major</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="48">
+      <c r="A85" s="46">
         <v>84.0</v>
       </c>
-      <c r="B85" s="50" t="s">
+      <c r="B85" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="C85" s="51" t="str">
+      <c r="C85" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Ursa Minor</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="48">
+      <c r="A86" s="46">
         <v>85.0</v>
       </c>
-      <c r="B86" s="50" t="s">
+      <c r="B86" s="48" t="s">
         <v>521</v>
       </c>
-      <c r="C86" s="51" t="str">
+      <c r="C86" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Vela</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="48">
+      <c r="A87" s="46">
         <v>86.0</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="48" t="s">
         <v>522</v>
       </c>
-      <c r="C87" s="51" t="str">
+      <c r="C87" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Virgo</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="48">
+      <c r="A88" s="46">
         <v>87.0</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C88" s="51" t="str">
+      <c r="C88" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Volans</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="48">
+      <c r="A89" s="46">
         <v>88.0</v>
       </c>
-      <c r="B89" s="50" t="s">
+      <c r="B89" s="48" t="s">
         <v>524</v>
       </c>
-      <c r="C89" s="51" t="str">
+      <c r="C89" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Vulpecula</v>
       </c>
